--- a/user.xlsx
+++ b/user.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\FMS\FMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\86\FMS\FMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08492A42-453E-48D3-AF59-6C4F80C041D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4B4EFC-F0A4-4628-B429-742CC58BFCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
@@ -31,17 +31,20 @@
     <t>c1cm31</t>
   </si>
   <si>
-    <t>Abc@123</t>
-  </si>
-  <si>
     <t>c2cm31</t>
+  </si>
+  <si>
+    <t>e06b1afd38ddb78b3f87842adc69bd243286f24c7b4ba9c94aaedf366fa064e6</t>
+  </si>
+  <si>
+    <t>ducanhvjppro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,40 +53,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -96,7 +67,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -104,40 +75,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -441,55 +389,57 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="65" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{75AF8B06-6449-4EEB-9E69-C6B37A081EFF}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{455BF1F8-C0CF-4198-A40B-414B52B4197E}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>